--- a/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
+++ b/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\주소록데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095236DB-A26A-425C-9D36-E3D15233B0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B471E-EAB6-4223-88C1-697BBBE39192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
+++ b/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\주소록데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B471E-EAB6-4223-88C1-697BBBE39192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CBD20-0859-44AF-B580-B029E93C8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
+++ b/샘플데이터/주소록데이터/주소록 샘플 데이터(2022-07-19).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\주소록데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32CBD20-0859-44AF-B580-B029E93C8C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09149028-FA6C-426C-990A-C644A6F71C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="492">
   <si>
     <t>갈한수</t>
   </si>
@@ -297,7 +289,7 @@
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>경남 김해시 어방동 1088-7</t>
@@ -529,7 +521,7 @@
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>대전시 서구 도마동 29-32번지</t>
@@ -902,7 +894,7 @@
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>090-5311-5631</t>
@@ -926,9 +918,6 @@
     <t>090-7969-6436</t>
   </si>
   <si>
-    <t>학생이름</t>
-  </si>
-  <si>
     <t>090-8803-6270</t>
   </si>
   <si>
@@ -1503,18 +1492,42 @@
   </si>
   <si>
     <t>090-5928-4380</t>
+  </si>
+  <si>
+    <t>김복동</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>090-8712-3391</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 송파구 마천동 1-3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수철</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1673,19 +1686,19 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1694,19 +1707,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1992,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2097,7 +2113,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>95</v>
@@ -2108,7 +2124,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>96</v>
@@ -2119,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>97</v>
@@ -2130,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>98</v>
@@ -2141,7 +2157,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>99</v>
@@ -2152,7 +2168,7 @@
         <v>86</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>100</v>
@@ -2163,7 +2179,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>101</v>
@@ -2174,7 +2190,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>102</v>
@@ -2185,7 +2201,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>103</v>
@@ -2196,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>104</v>
@@ -2207,7 +2223,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>105</v>
@@ -2218,7 +2234,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>106</v>
@@ -2229,7 +2245,7 @@
         <v>83</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>107</v>
@@ -2240,7 +2256,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>108</v>
@@ -2251,7 +2267,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>109</v>
@@ -2262,7 +2278,7 @@
         <v>48</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>110</v>
@@ -2273,7 +2289,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>111</v>
@@ -2284,7 +2300,7 @@
         <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>112</v>
@@ -2295,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>113</v>
@@ -2306,7 +2322,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>114</v>
@@ -2317,7 +2333,7 @@
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>115</v>
@@ -2328,7 +2344,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>116</v>
@@ -2339,7 +2355,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>117</v>
@@ -2350,7 +2366,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>118</v>
@@ -2361,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>119</v>
@@ -2372,7 +2388,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>120</v>
@@ -2383,7 +2399,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>121</v>
@@ -2394,7 +2410,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>122</v>
@@ -2405,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>123</v>
@@ -2416,7 +2432,7 @@
         <v>72</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>124</v>
@@ -2427,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>125</v>
@@ -2438,7 +2454,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>126</v>
@@ -2449,7 +2465,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>127</v>
@@ -2460,7 +2476,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>128</v>
@@ -2471,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>129</v>
@@ -2482,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>130</v>
@@ -2493,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>131</v>
@@ -2504,7 +2520,7 @@
         <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>132</v>
@@ -2515,7 +2531,7 @@
         <v>71</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>133</v>
@@ -2526,7 +2542,7 @@
         <v>80</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>134</v>
@@ -2537,7 +2553,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>135</v>
@@ -2548,7 +2564,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>136</v>
@@ -2559,7 +2575,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>137</v>
@@ -2570,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>138</v>
@@ -2581,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>139</v>
@@ -2592,7 +2608,7 @@
         <v>66</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>140</v>
@@ -2603,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>141</v>
@@ -2614,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>142</v>
@@ -2625,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>143</v>
@@ -2636,7 +2652,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>144</v>
@@ -2647,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>145</v>
@@ -2658,7 +2674,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>146</v>
@@ -2669,7 +2685,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>147</v>
@@ -2680,7 +2696,7 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>148</v>
@@ -2691,7 +2707,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>149</v>
@@ -2702,7 +2718,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>150</v>
@@ -2713,7 +2729,7 @@
         <v>81</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>151</v>
@@ -2724,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>152</v>
@@ -2735,7 +2751,7 @@
         <v>76</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>153</v>
@@ -2746,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>154</v>
@@ -2757,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>155</v>
@@ -2768,7 +2784,7 @@
         <v>54</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>156</v>
@@ -2779,7 +2795,7 @@
         <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>157</v>
@@ -2790,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>158</v>
@@ -2801,7 +2817,7 @@
         <v>75</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>159</v>
@@ -2812,7 +2828,7 @@
         <v>51</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>160</v>
@@ -2823,7 +2839,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>161</v>
@@ -2834,7 +2850,7 @@
         <v>33</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>162</v>
@@ -2845,7 +2861,7 @@
         <v>79</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>163</v>
@@ -2856,7 +2872,7 @@
         <v>25</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>165</v>
@@ -2867,7 +2883,7 @@
         <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>166</v>
@@ -2878,7 +2894,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>167</v>
@@ -2889,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>168</v>
@@ -2900,7 +2916,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>169</v>
@@ -2911,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>170</v>
@@ -2922,7 +2938,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>171</v>
@@ -2933,7 +2949,7 @@
         <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>172</v>
@@ -2944,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>173</v>
@@ -2955,7 +2971,7 @@
         <v>41</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>174</v>
@@ -2966,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>175</v>
@@ -2977,7 +2993,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>176</v>
@@ -2988,7 +3004,7 @@
         <v>76</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>177</v>
@@ -2999,7 +3015,7 @@
         <v>49</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>178</v>
@@ -3010,7 +3026,7 @@
         <v>71</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>179</v>
@@ -3021,7 +3037,7 @@
         <v>47</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>180</v>
@@ -3032,7 +3048,7 @@
         <v>25</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>181</v>
@@ -3043,7 +3059,7 @@
         <v>35</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>182</v>
@@ -3054,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>183</v>
@@ -3065,7 +3081,7 @@
         <v>32</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>184</v>
@@ -3076,7 +3092,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>185</v>
@@ -3087,7 +3103,7 @@
         <v>43</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>186</v>
@@ -3098,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>187</v>
@@ -3109,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>188</v>
@@ -3120,7 +3136,7 @@
         <v>51</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>189</v>
@@ -3131,7 +3147,7 @@
         <v>18</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>190</v>
@@ -3142,7 +3158,7 @@
         <v>29</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>191</v>
@@ -3153,7 +3169,7 @@
         <v>42</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>192</v>
@@ -3164,7 +3180,7 @@
         <v>47</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>193</v>
@@ -3175,7 +3191,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>194</v>
@@ -3186,7 +3202,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>195</v>
@@ -3197,7 +3213,7 @@
         <v>45</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>196</v>
@@ -3208,7 +3224,7 @@
         <v>64</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>197</v>
@@ -3219,7 +3235,7 @@
         <v>15</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>198</v>
@@ -3230,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>199</v>
@@ -3241,7 +3257,7 @@
         <v>11</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>200</v>
@@ -3252,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>201</v>
@@ -3263,7 +3279,7 @@
         <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>202</v>
@@ -3274,7 +3290,7 @@
         <v>22</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>203</v>
@@ -3285,7 +3301,7 @@
         <v>68</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>204</v>
@@ -3296,7 +3312,7 @@
         <v>48</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>205</v>
@@ -3307,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>206</v>
@@ -3318,7 +3334,7 @@
         <v>25</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>207</v>
@@ -3329,7 +3345,7 @@
         <v>69</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>208</v>
@@ -3340,7 +3356,7 @@
         <v>38</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>209</v>
@@ -3351,7 +3367,7 @@
         <v>36</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>210</v>
@@ -3362,7 +3378,7 @@
         <v>23</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>211</v>
@@ -3373,7 +3389,7 @@
         <v>1</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>212</v>
@@ -3384,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>213</v>
@@ -3395,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>214</v>
@@ -3406,7 +3422,7 @@
         <v>40</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>215</v>
@@ -3417,7 +3433,7 @@
         <v>69</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>216</v>
@@ -3428,7 +3444,7 @@
         <v>25</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>217</v>
@@ -3439,7 +3455,7 @@
         <v>76</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>218</v>
@@ -3450,7 +3466,7 @@
         <v>81</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>219</v>
@@ -3461,7 +3477,7 @@
         <v>83</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>220</v>
@@ -3472,7 +3488,7 @@
         <v>30</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>221</v>
@@ -3483,7 +3499,7 @@
         <v>60</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>222</v>
@@ -3494,7 +3510,7 @@
         <v>83</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>223</v>
@@ -3505,7 +3521,7 @@
         <v>63</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>224</v>
@@ -3516,7 +3532,7 @@
         <v>56</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>225</v>
@@ -3527,7 +3543,7 @@
         <v>59</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>226</v>
@@ -3538,7 +3554,7 @@
         <v>36</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>227</v>
@@ -3549,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>228</v>
@@ -3560,7 +3576,7 @@
         <v>64</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>229</v>
@@ -3571,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>230</v>
@@ -3582,7 +3598,7 @@
         <v>44</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>231</v>
@@ -3593,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>232</v>
@@ -3604,7 +3620,7 @@
         <v>65</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>233</v>
@@ -3615,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>234</v>
@@ -3626,7 +3642,7 @@
         <v>58</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>235</v>
@@ -3637,7 +3653,7 @@
         <v>65</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>236</v>
@@ -3648,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>237</v>
@@ -3659,7 +3675,7 @@
         <v>78</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>238</v>
@@ -3670,7 +3686,7 @@
         <v>40</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>239</v>
@@ -3681,7 +3697,7 @@
         <v>8</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>240</v>
@@ -3692,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>241</v>
@@ -3703,7 +3719,7 @@
         <v>45</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>242</v>
@@ -3714,7 +3730,7 @@
         <v>17</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>243</v>
@@ -3725,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>244</v>
@@ -3736,7 +3752,7 @@
         <v>31</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>245</v>
@@ -3747,7 +3763,7 @@
         <v>56</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>246</v>
@@ -3758,7 +3774,7 @@
         <v>18</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>247</v>
@@ -3769,7 +3785,7 @@
         <v>38</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>248</v>
@@ -3780,7 +3796,7 @@
         <v>49</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>249</v>
@@ -3791,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>250</v>
@@ -3802,7 +3818,7 @@
         <v>37</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>251</v>
@@ -3813,7 +3829,7 @@
         <v>70</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>252</v>
@@ -3824,7 +3840,7 @@
         <v>21</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>253</v>
@@ -3835,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>254</v>
@@ -3846,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>255</v>
@@ -3857,7 +3873,7 @@
         <v>48</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>256</v>
@@ -3868,7 +3884,7 @@
         <v>57</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>257</v>
@@ -3879,7 +3895,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>258</v>
@@ -3890,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>259</v>
@@ -3901,7 +3917,7 @@
         <v>82</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>260</v>
@@ -3912,7 +3928,7 @@
         <v>32</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>261</v>
@@ -3923,7 +3939,7 @@
         <v>12</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>262</v>
@@ -3934,7 +3950,7 @@
         <v>40</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>263</v>
@@ -3945,7 +3961,7 @@
         <v>55</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>264</v>
@@ -3956,7 +3972,7 @@
         <v>33</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>265</v>
@@ -3967,7 +3983,7 @@
         <v>3</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>266</v>
@@ -3978,7 +3994,7 @@
         <v>28</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>267</v>
@@ -3989,7 +4005,7 @@
         <v>82</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>268</v>
@@ -4000,7 +4016,7 @@
         <v>35</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>269</v>
@@ -4011,7 +4027,7 @@
         <v>38</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>270</v>
@@ -4022,7 +4038,7 @@
         <v>72</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>271</v>
@@ -4033,7 +4049,7 @@
         <v>8</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>272</v>
@@ -4044,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>273</v>
@@ -4055,7 +4071,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>274</v>
@@ -4066,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>275</v>
@@ -4077,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>276</v>
@@ -4085,10 +4101,10 @@
     </row>
     <row r="190" spans="1:3" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>277</v>
@@ -4099,7 +4115,7 @@
         <v>86</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>278</v>
@@ -4110,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>279</v>
@@ -4121,7 +4137,7 @@
         <v>24</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>280</v>
@@ -4132,7 +4148,7 @@
         <v>49</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>281</v>
@@ -4143,7 +4159,7 @@
         <v>46</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>282</v>
@@ -4154,7 +4170,7 @@
         <v>52</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>283</v>
@@ -4165,7 +4181,7 @@
         <v>38</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>284</v>
@@ -4176,7 +4192,7 @@
         <v>62</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>285</v>
@@ -4184,28 +4200,36 @@
     </row>
     <row r="199" spans="1:3" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B200" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" s="2" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" s="2" customFormat="1" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="C200" s="6" t="s">
+      <c r="C201" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C202" s="1"/>
@@ -4237,8 +4261,11 @@
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C211" s="1"/>
     </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
